--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6862741893732851</v>
+        <v>0.6851942329906543</v>
       </c>
       <c r="D2">
-        <v>0.4926349791946527</v>
+        <v>0.5003778768378944</v>
       </c>
       <c r="E2">
         <v>0.6996665833726627</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.552186171252311</v>
+        <v>1.444797119256442</v>
       </c>
       <c r="D3">
-        <v>0.1208061459696108</v>
+        <v>0.1626082845614432</v>
       </c>
       <c r="E3">
         <v>0.6996665833726627</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.837941805295861</v>
+        <v>1.743474057542678</v>
       </c>
       <c r="D4">
-        <v>0.06624756402299115</v>
+        <v>0.095211155056798</v>
       </c>
       <c r="E4">
         <v>0.6996665833726627</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.074372227800671</v>
+        <v>3.008550880283925</v>
       </c>
       <c r="D5">
-        <v>0.002143443613186191</v>
+        <v>0.006465173062416785</v>
       </c>
       <c r="E5">
         <v>0.6996665833726627</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7675660602973965</v>
+        <v>0.7013207802777968</v>
       </c>
       <c r="D6">
-        <v>0.4428529583847365</v>
+        <v>0.4904555296657263</v>
       </c>
       <c r="E6">
         <v>0.6815037336311945</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.009559373299089</v>
+        <v>1.234627775944518</v>
       </c>
       <c r="D7">
-        <v>0.3128519074022749</v>
+        <v>0.2299941153296448</v>
       </c>
       <c r="E7">
         <v>0.6815037336311945</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.37138782720225</v>
+        <v>2.176680856983311</v>
       </c>
       <c r="D8">
-        <v>0.01783369181362282</v>
+        <v>0.04051711651350454</v>
       </c>
       <c r="E8">
         <v>0.6815037336311945</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1058568057704299</v>
+        <v>0.09899821313638568</v>
       </c>
       <c r="D9">
-        <v>0.9157086105287313</v>
+        <v>0.9220362152518293</v>
       </c>
       <c r="E9">
         <v>0.6609847210059029</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.479971936913122</v>
+        <v>1.114648576790221</v>
       </c>
       <c r="D10">
-        <v>0.1390683396886496</v>
+        <v>0.2770302110246514</v>
       </c>
       <c r="E10">
         <v>0.6609847210059029</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.603300372000053</v>
+        <v>1.397624387595759</v>
       </c>
       <c r="D11">
-        <v>0.1090564400901712</v>
+        <v>0.1761615727352215</v>
       </c>
       <c r="E11">
         <v>0.6589849452231014</v>
